--- a/0_1_Output_Data/4_ifo_qoq_error_series_20101_20181/ifo_qoq_errors_first_eval_20101_20181.xlsx
+++ b/0_1_Output_Data/4_ifo_qoq_error_series_20101_20181/ifo_qoq_errors_first_eval_20101_20181.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbe04e23282f0d1/Desktop/ifo/Konjunkturprognose Evaluierung/ifo Forecast Evaluation Workfolder/0_1_Output_Data/4_ifo_qoq_error_series_20101_20181/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_591DA0E6F613C816C9053C7F06B5ED2E7552B99C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C3125AA-8F8A-460F-8796-C49EFAD3F59F}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-26805" yWindow="1815" windowWidth="19200" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -94,8 +100,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,17 +160,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -202,7 +216,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -236,6 +250,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -270,9 +285,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -445,14 +461,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -489,114 +508,114 @@
         <v>-0.198016164584883</v>
       </c>
       <c r="D2">
-        <v>-0.06479708162335629</v>
+        <v>-6.479708162335629E-2</v>
       </c>
       <c r="E2">
         <v>-1.199182264219526</v>
       </c>
       <c r="F2">
-        <v>0.2057776962582608</v>
+        <v>0.20577769625826081</v>
       </c>
       <c r="G2">
-        <v>-0.1530181086519004</v>
+        <v>-0.15301810865190041</v>
       </c>
       <c r="H2">
-        <v>0.5818677821224053</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.58186778212240531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.4352029183766609</v>
+        <v>0.43520291837666092</v>
       </c>
       <c r="C3">
-        <v>-1.199182264219509</v>
+        <v>-1.1991822642195089</v>
       </c>
       <c r="D3">
-        <v>0.280777696258258</v>
+        <v>0.28077769625825799</v>
       </c>
       <c r="E3">
-        <v>-0.00301810865190888</v>
+        <v>-3.01810865190888E-3</v>
       </c>
       <c r="F3">
-        <v>0.6818677821223996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.68186778212239962</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.280777696258258</v>
+        <v>0.28077769625825799</v>
       </c>
       <c r="C4">
-        <v>-0.00301810865190888</v>
+        <v>-3.01810865190888E-3</v>
       </c>
       <c r="D4">
         <v>0.7818677821223996</v>
       </c>
       <c r="E4">
-        <v>0.08984239774072844</v>
+        <v>8.9842397740728441E-2</v>
       </c>
       <c r="F4">
-        <v>0.3292907417433573</v>
+        <v>0.32929074174335732</v>
       </c>
       <c r="G4">
-        <v>0.366018718502528</v>
+        <v>0.36601871850252798</v>
       </c>
       <c r="H4">
-        <v>1.192512792889843</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>1.1925127928898429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5">
-        <v>-0.01813221787760042</v>
+        <v>-1.8132217877600419E-2</v>
       </c>
       <c r="C5">
-        <v>-0.4101576022592716</v>
+        <v>-0.41015760225927161</v>
       </c>
       <c r="D5">
-        <v>-0.0707092582566427</v>
+        <v>-7.0709258256642704E-2</v>
       </c>
       <c r="E5">
-        <v>0.066018718502528</v>
+        <v>6.6018718502527995E-2</v>
       </c>
       <c r="F5">
-        <v>0.8925127928898435</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.89251279288984353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.1707092582566427</v>
+        <v>-0.17070925825664271</v>
       </c>
       <c r="C6">
-        <v>-0.133981281497472</v>
+        <v>-0.13398128149747199</v>
       </c>
       <c r="D6">
-        <v>0.8925127928898435</v>
+        <v>0.89251279288984353</v>
       </c>
       <c r="E6">
-        <v>0.3367145827682783</v>
+        <v>0.33671458276827831</v>
       </c>
       <c r="F6">
-        <v>-0.3214356569573426</v>
+        <v>-0.32143565695734261</v>
       </c>
       <c r="G6">
-        <v>0.1776792908944405</v>
+        <v>0.17767929089444051</v>
       </c>
       <c r="H6">
         <v>0.1162427487728631</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -607,16 +626,16 @@
         <v>0.1367145827682783</v>
       </c>
       <c r="D7">
-        <v>-0.4214356569573426</v>
+        <v>-0.42143565695734259</v>
       </c>
       <c r="E7">
-        <v>0.07767929089444053</v>
+        <v>7.7679290894440534E-2</v>
       </c>
       <c r="F7">
         <v>0.1162427487728631</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -624,96 +643,96 @@
         <v>0.1785643430426489</v>
       </c>
       <c r="C8">
-        <v>0.09767929089444222</v>
+        <v>9.7679290894442217E-2</v>
       </c>
       <c r="D8">
-        <v>0.0162427487728688</v>
+        <v>1.6242748772868802E-2</v>
       </c>
       <c r="E8">
-        <v>-0.4179231863442348</v>
+        <v>-0.41792318634423481</v>
       </c>
       <c r="F8">
         <v>0.6108782057348251</v>
       </c>
       <c r="G8">
-        <v>0.4337623012868961</v>
+        <v>0.43376230128689608</v>
       </c>
       <c r="H8">
-        <v>-0.1996974281391924</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>-0.19969742813919239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.0837572512271369</v>
+        <v>-8.3757251227136897E-2</v>
       </c>
       <c r="C9">
-        <v>-0.3179231863442404</v>
+        <v>-0.31792318634424038</v>
       </c>
       <c r="D9">
-        <v>0.6608782057348365</v>
+        <v>0.66087820573483647</v>
       </c>
       <c r="E9">
-        <v>0.5337623012869103</v>
+        <v>0.53376230128691027</v>
       </c>
       <c r="F9">
-        <v>-0.09969742813917826</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>-9.9697428139178257E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.4608782057348194</v>
+        <v>0.46087820573481941</v>
       </c>
       <c r="C10">
-        <v>0.333762301286916</v>
+        <v>0.33376230128691597</v>
       </c>
       <c r="D10">
-        <v>-0.2496974281391897</v>
+        <v>-0.24969742813918969</v>
       </c>
       <c r="E10">
-        <v>0.2476995305164363</v>
+        <v>0.24769953051643631</v>
       </c>
       <c r="F10">
-        <v>0.08136257582828943</v>
+        <v>8.136257582828943E-2</v>
       </c>
       <c r="G10">
-        <v>0.2040735922691153</v>
+        <v>0.20407359226911531</v>
       </c>
       <c r="H10">
-        <v>0.2513073288242555</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.25130732882425549</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.4996974281391754</v>
+        <v>-0.49969742813917539</v>
       </c>
       <c r="C11">
-        <v>0.1476995305164278</v>
+        <v>0.14769953051642781</v>
       </c>
       <c r="D11">
-        <v>-0.0186374241717191</v>
+        <v>-1.86374241717191E-2</v>
       </c>
       <c r="E11">
         <v>0.1040735922691067</v>
       </c>
       <c r="F11">
-        <v>0.151307328824247</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.15130732882424699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.1813625758282837</v>
+        <v>0.18136257582828369</v>
       </c>
       <c r="C12">
         <v>0.1040735922691067</v>
@@ -722,90 +741,90 @@
         <v>0.131307328824251</v>
       </c>
       <c r="E12">
-        <v>-0.2653114026982006</v>
+        <v>-0.26531140269820058</v>
       </c>
       <c r="F12">
-        <v>-0.01125936757448054</v>
+        <v>-1.1259367574480541E-2</v>
       </c>
       <c r="G12">
         <v>0.2088650222990921</v>
       </c>
       <c r="H12">
-        <v>-0.0269234262875761</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>-2.6923426287576099E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.2013073288242442</v>
+        <v>0.20130732882424421</v>
       </c>
       <c r="C13">
-        <v>-0.216311402698194</v>
+        <v>-0.21631140269819399</v>
       </c>
       <c r="D13">
-        <v>0.03774063242552606</v>
+        <v>3.7740632425526062E-2</v>
       </c>
       <c r="E13">
-        <v>0.2578650222990987</v>
+        <v>0.25786502229909869</v>
       </c>
       <c r="F13">
-        <v>0.02207657371243049</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>2.2076573712430492E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.07125936757448281</v>
+        <v>-7.1259367574482813E-2</v>
       </c>
       <c r="C14">
-        <v>0.2488650222990841</v>
+        <v>0.24886502229908411</v>
       </c>
       <c r="D14">
-        <v>0.01307657371241594</v>
+        <v>1.307657371241594E-2</v>
       </c>
       <c r="E14">
-        <v>-0.1258961837583767</v>
+        <v>-0.12589618375837669</v>
       </c>
       <c r="F14">
-        <v>-0.1364567140176977</v>
+        <v>-0.13645671401769771</v>
       </c>
       <c r="G14">
-        <v>-0.3441758241758278</v>
+        <v>-0.34417582417582782</v>
       </c>
       <c r="H14">
         <v>-0.126966924700923</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.02307657371240679</v>
+        <v>2.3076573712406789E-2</v>
       </c>
       <c r="C15">
         <v>-0.2058961837583608</v>
       </c>
       <c r="D15">
-        <v>-0.2164567140176819</v>
+        <v>-0.21645671401768191</v>
       </c>
       <c r="E15">
         <v>-0.4241758241758119</v>
       </c>
       <c r="F15">
-        <v>-0.2069669247009072</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>-0.20696692470090719</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.0835432859823011</v>
+        <v>8.3543285982301096E-2</v>
       </c>
       <c r="C16">
         <v>-0.2241758241758233</v>
@@ -817,62 +836,62 @@
         <v>0.1527192445571372</v>
       </c>
       <c r="F16">
-        <v>-0.00158488927486683</v>
+        <v>-1.58488927486683E-3</v>
       </c>
       <c r="G16">
-        <v>0.6488415319443164</v>
+        <v>0.64884153194431637</v>
       </c>
       <c r="H16">
         <v>0.4326764833261072</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B17">
-        <v>-0.05696692470090148</v>
+        <v>-5.6966924700901478E-2</v>
       </c>
       <c r="C17">
-        <v>0.2027192445571344</v>
+        <v>0.20271924455713439</v>
       </c>
       <c r="D17">
-        <v>0.04841511072513038</v>
+        <v>4.8415110725130377E-2</v>
       </c>
       <c r="E17">
-        <v>0.6988415319443135</v>
+        <v>0.69884153194431353</v>
       </c>
       <c r="F17">
-        <v>0.4826764833261045</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>0.48267648332610452</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.4027192445571373</v>
+        <v>0.40271924455713731</v>
       </c>
       <c r="C18">
-        <v>0.1634151107251537</v>
+        <v>0.16341511072515369</v>
       </c>
       <c r="D18">
-        <v>0.7478415319443343</v>
+        <v>0.74784153194433434</v>
       </c>
       <c r="E18">
-        <v>0.4826764833261045</v>
+        <v>0.48267648332610452</v>
       </c>
       <c r="F18">
         <v>0.1756473542911566</v>
       </c>
       <c r="G18">
-        <v>0.5746895714685679</v>
+        <v>0.57468957146856792</v>
       </c>
       <c r="H18">
-        <v>0.4158406583130553</v>
+        <v>0.41584065831305528</v>
       </c>
       <c r="I18">
-        <v>0.4720044792832994</v>
+        <v>0.47200447928329942</v>
       </c>
     </row>
   </sheetData>
